--- a/biology/Botanique/Saururaceae/Saururaceae.xlsx
+++ b/biology/Botanique/Saururaceae/Saururaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Saururacées est une famille de plantes dicotylédones de divergence ancienne.
 Ce sont des plantes herbacées bisannuelles, rhizomateuses, aux tiges articulées, productrices d'huiles essentielles, des régions tempérées à tropicales. On les rencontre en Asie de l'Est, dans le Sud des États-Unis et au Mexique.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de famille vient du genre Saururus lui-même issu du grec Σαύρα Sáura (lézard) et ουρά ourá (queue)[1],[2]. Le nom est attribué, en 1693, par Charles Plumier à des plantes placées actuellement principalement  dans les genres Piper ou Peperomia, en raison de leur inflorescence longue et recourbée, pouvant faire penser à une queue de lézard.
-En 1753, Linné reprend le nom donné par Charles Plumier pour l'espèce dénommée soit Saururus foliis profunde cordatis ovato-lanceolatis, soit Serpentaria repens, espèce qu'il rebaptise Saururus cernuus et qui devient l'espèce-type du genre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de famille vient du genre Saururus lui-même issu du grec Σαύρα Sáura (lézard) et ουρά ourá (queue),. Le nom est attribué, en 1693, par Charles Plumier à des plantes placées actuellement principalement  dans les genres Piper ou Peperomia, en raison de leur inflorescence longue et recourbée, pouvant faire penser à une queue de lézard.
+En 1753, Linné reprend le nom donné par Charles Plumier pour l'espèce dénommée soit Saururus foliis profunde cordatis ovato-lanceolatis, soit Serpentaria repens, espèce qu'il rebaptise Saururus cernuus et qui devient l'espèce-type du genre.
 En 1820, Ivan Ivanovič Martinov définit la famille des Saururacées dont le genre Saururus est le type.
 </t>
         </is>
@@ -546,20 +560,22 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (13 avr. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (13 avr. 2010) :
 genre Anemopsis
 genre Circaeocarpus
 genre Gymnotheca
 genre Houttuynia
 genre Saururus
-Selon NCBI  (13 avr. 2010)[5] et DELTA Angio           (13 avr. 2010)[6] :
+Selon NCBI  (13 avr. 2010) et DELTA Angio           (13 avr. 2010) :
 genre Anemopsis
 genre Gymnotheca
 genre Houttuynia
 genre Saururus
-Selon ITIS      (13 avr. 2010)[7] :
+Selon ITIS      (13 avr. 2010) :
 genre Anemopsis Hook. &amp; Arn.
 genre Houttuynia Thunb.
 genre Saururus L.</t>
@@ -590,9 +606,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) :
 genre Anemopsis
 Anemopsis californica
 genre Gymnotheca
